--- a/data/trans_orig/P78C_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78C_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42E75E27-5DEC-457B-9D11-141B0FC37D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F05E02A-5F8A-4C7D-93DC-CD643E94CDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2DF079BF-54D4-4729-82EB-EC28AB167D97}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{96094F8D-DCF9-4570-BB95-6B4352E458B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="182">
   <si>
     <t>Población con retrasos en pagos no resueltos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -284,268 +284,304 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>0,48%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
   </si>
   <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>97,45%</t>
+    <t>97,46%</t>
   </si>
   <si>
     <t>98,25%</t>
@@ -960,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E411AAAE-1B54-4CAE-A3ED-108236FEFB2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1587AD0D-EFF6-4A76-A5AF-9599CB13F9A9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1937,7 +1973,7 @@
         <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -1988,7 +2024,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2023,7 +2059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564F96A7-8A17-4D6F-9E8E-DEEB32F26A3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D42735-1062-4650-8C07-13E35E0260E3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3086,7 +3122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E42988-D3C7-4F19-B0A3-825929DBFAA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4FACBE-A0A3-4FFD-A800-CCD1D8BB5AD2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4149,7 +4185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D4990C-D537-40C0-A3A9-05899C83EA00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65464BC-36BB-416B-9945-5C34B0F35B62}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4291,10 +4327,10 @@
         <v>52</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -4303,13 +4339,13 @@
         <v>2200</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,10 +4360,10 @@
         <v>100745</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -4342,10 +4378,10 @@
         <v>55</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="M5" s="7">
         <v>355</v>
@@ -4354,13 +4390,13 @@
         <v>229438</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,13 +4464,13 @@
         <v>6544</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -4443,13 +4479,13 @@
         <v>7083</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -4458,13 +4494,13 @@
         <v>13627</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4515,13 @@
         <v>535151</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H8" s="7">
         <v>984</v>
@@ -4494,28 +4530,28 @@
         <v>609953</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M8" s="7">
         <v>1584</v>
       </c>
       <c r="N8" s="7">
-        <v>1145104</v>
+        <v>1145103</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,7 +4593,7 @@
         <v>1601</v>
       </c>
       <c r="N9" s="7">
-        <v>1158731</v>
+        <v>1158730</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4583,13 +4619,13 @@
         <v>18199</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -4598,13 +4634,13 @@
         <v>19159</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -4616,10 +4652,10 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,13 +4670,13 @@
         <v>1007853</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H11" s="7">
         <v>1479</v>
@@ -4649,13 +4685,13 @@
         <v>1020569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M11" s="7">
         <v>2419</v>
@@ -4667,10 +4703,10 @@
         <v>18</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4774,13 @@
         <v>25454</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -4753,13 +4789,13 @@
         <v>14193</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -4768,13 +4804,13 @@
         <v>39646</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4825,13 @@
         <v>691862</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>1018</v>
@@ -4804,13 +4840,13 @@
         <v>850658</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>1666</v>
@@ -4819,13 +4855,13 @@
         <v>1542521</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,13 +4929,13 @@
         <v>22810</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -4908,13 +4944,13 @@
         <v>36134</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -4923,13 +4959,13 @@
         <v>58944</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,13 +4980,13 @@
         <v>931669</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H17" s="7">
         <v>1503</v>
@@ -4959,13 +4995,13 @@
         <v>1099704</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>2475</v>
@@ -4974,13 +5010,13 @@
         <v>2031373</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,13 +5084,13 @@
         <v>73167</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="H19" s="7">
         <v>96</v>
@@ -5063,13 +5099,13 @@
         <v>78608</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="M19" s="7">
         <v>164</v>
@@ -5078,13 +5114,13 @@
         <v>151775</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,13 +5135,13 @@
         <v>3267279</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="H20" s="7">
         <v>5223</v>
@@ -5114,13 +5150,13 @@
         <v>3709578</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="M20" s="7">
         <v>8499</v>
@@ -5129,13 +5165,13 @@
         <v>6976857</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P78C_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78C_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F05E02A-5F8A-4C7D-93DC-CD643E94CDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7572CE20-16C5-49EC-8E5F-FF547C3F9F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{96094F8D-DCF9-4570-BB95-6B4352E458B9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A25B977-02C2-4851-83EC-15BA32B27851}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -128,7 +128,7 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -143,7 +143,7 @@
     <t>99,89%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -233,7 +233,7 @@
     <t>99,73%</t>
   </si>
   <si>
-    <t>Población con retrasos en pagos no resueltos en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población con retrasos en pagos no resueltos en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,68%</t>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1587AD0D-EFF6-4A76-A5AF-9599CB13F9A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A548033A-DA19-4701-99CB-E0ED9164C91A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1943,7 +1943,7 @@
         <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -1994,7 +1994,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2059,7 +2059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D42735-1062-4650-8C07-13E35E0260E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DECD13-BA08-4BE5-A365-2AF24B5478FB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3122,7 +3122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4FACBE-A0A3-4FFD-A800-CCD1D8BB5AD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC8B823-80ED-4635-9F66-2833190924EA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4185,7 +4185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65464BC-36BB-416B-9945-5C34B0F35B62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5092AC-D4D0-42FB-940E-31C14B0A6D47}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P78C_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78C_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7572CE20-16C5-49EC-8E5F-FF547C3F9F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D5D0BA0-F1A5-407F-BAA2-6E02B9AC3A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A25B977-02C2-4851-83EC-15BA32B27851}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{42C4A255-189B-48A0-984B-EBB3DBBAA39B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="184">
   <si>
     <t>Población con retrasos en pagos no resueltos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,6 +71,24 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
+    <t>No recogida en edición</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
     <t>Sí</t>
   </si>
   <si>
@@ -92,24 +110,18 @@
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
     <t>2-10.000 hab</t>
   </si>
   <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
     <t>0,33%</t>
   </si>
   <si>
@@ -119,33 +131,33 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
     <t>0,21%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
     <t>&gt;50.000hab</t>
   </si>
   <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
     <t>0,3%</t>
   </si>
   <si>
@@ -155,28 +167,25 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
     <t>0,19%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -185,18 +194,21 @@
     <t>0,03%</t>
   </si>
   <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población con retrasos en pagos no resueltos en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
     <t>1,56%</t>
   </si>
   <si>
@@ -206,36 +218,36 @@
     <t>0,86%</t>
   </si>
   <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>99,65%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>99,65%</t>
+    <t>99,8%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>99,8%</t>
+    <t>99,73%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
     <t>Población con retrasos en pagos no resueltos en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
     <t>1,68%</t>
   </si>
   <si>
@@ -245,13 +257,10 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
   </si>
   <si>
     <t>0,36%</t>
@@ -260,10 +269,10 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
   </si>
   <si>
     <t>0,26%</t>
@@ -272,319 +281,316 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>Población con retrasos en pagos no resueltos en 2023 (Tasa respuesta: 99,08%)</t>
+    <t>Población con retrasos en pagos no resueltos en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
     <t>0,31%</t>
   </si>
   <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
   </si>
   <si>
     <t>97,33%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
     <t>97,9%</t>
   </si>
   <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
 </sst>
 </file>
@@ -996,8 +1002,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A548033A-DA19-4701-99CB-E0ED9164C91A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292BA6DE-7161-4A22-8DA2-A3B32F6A6A1B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1114,10 +1120,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>115358</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1129,34 +1135,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>112755</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>228113</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1165,10 +1171,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>115358</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1180,144 +1186,144 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>112755</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="7">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>228113</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>105</v>
+      </c>
+      <c r="D7" s="7">
+        <v>115358</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>128</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I7" s="7">
         <v>112755</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="7">
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
         <v>233</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N7" s="7">
         <v>228113</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>578</v>
@@ -1326,13 +1332,13 @@
         <v>578654</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
         <v>568</v>
@@ -1341,13 +1347,13 @@
         <v>575596</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
         <v>1146</v>
@@ -1356,174 +1362,174 @@
         <v>1154250</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>896</v>
+        <v>578</v>
       </c>
       <c r="D11" s="7">
-        <v>961800</v>
+        <v>578654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>908</v>
+        <v>568</v>
       </c>
       <c r="I11" s="7">
-        <v>968393</v>
+        <v>575596</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1804</v>
+        <v>1146</v>
       </c>
       <c r="N11" s="7">
-        <v>1930193</v>
+        <v>1154250</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
         <v>896</v>
@@ -1532,13 +1538,13 @@
         <v>961800</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>908</v>
@@ -1547,13 +1553,13 @@
         <v>968393</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>1804</v>
@@ -1562,117 +1568,115 @@
         <v>1930193</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>678509</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H14" s="7">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>683841</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M14" s="7">
-        <v>1337</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>1362350</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1681,102 +1685,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>896</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>961800</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>908</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>968393</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1804</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1930193</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>678509</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>683841</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1337</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1362350</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,282 +1789,590 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>994</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>942222</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="H17" s="7">
-        <v>997</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>1038612</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M17" s="7">
-        <v>1991</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>1980834</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="7">
+        <v>641</v>
+      </c>
+      <c r="D19" s="7">
+        <v>678509</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>696</v>
+      </c>
+      <c r="I19" s="7">
+        <v>683841</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1362350</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
         <v>994</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D20" s="7">
         <v>942222</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="7">
         <v>997</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I20" s="7">
         <v>1038612</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="7">
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="7">
         <v>1991</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N20" s="7">
         <v>1980834</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="O20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3276543</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6655741</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C23" s="7">
+        <v>994</v>
+      </c>
+      <c r="D23" s="7">
+        <v>942222</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="7">
+        <v>997</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1038612</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1991</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1980834</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
         <v>3214</v>
       </c>
-      <c r="D21" s="7">
-        <v>3276543</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
+      <c r="D24" s="7">
+        <v>3276544</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
         <v>3297</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I24" s="7">
         <v>3379198</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
         <v>6511</v>
       </c>
-      <c r="N21" s="7">
-        <v>6655741</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="N24" s="7">
+        <v>6655740</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3276544</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3379198</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N27" s="7">
+        <v>6655740</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DECD13-BA08-4BE5-A365-2AF24B5478FB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A006C261-0ED1-41B6-9112-7B976C85C514}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2076,7 +2388,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2177,49 +2489,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>115765</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>111905</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>227670</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,159 +2540,159 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>115765</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="H5" s="7">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>111905</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="M5" s="7">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>227670</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="7">
         <v>122</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="7">
         <v>115765</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>99</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I7" s="7">
         <v>111905</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="7">
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
         <v>221</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N7" s="7">
         <v>227670</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>552</v>
@@ -2389,13 +2701,13 @@
         <v>587704</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>59</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
         <v>551</v>
@@ -2404,13 +2716,13 @@
         <v>585145</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>59</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
         <v>1103</v>
@@ -2419,72 +2731,70 @@
         <v>1172849</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -2493,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>60</v>
@@ -2508,10 +2818,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>60</v>
@@ -2523,70 +2833,72 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>936</v>
+        <v>552</v>
       </c>
       <c r="D11" s="7">
-        <v>1017947</v>
+        <v>587704</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>940</v>
+        <v>551</v>
       </c>
       <c r="I11" s="7">
-        <v>1032184</v>
+        <v>585145</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1876</v>
+        <v>1103</v>
       </c>
       <c r="N11" s="7">
-        <v>2050131</v>
+        <v>1172849</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
         <v>936</v>
@@ -2595,13 +2907,13 @@
         <v>1017947</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>940</v>
@@ -2610,13 +2922,13 @@
         <v>1032184</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>1876</v>
@@ -2625,21 +2937,19 @@
         <v>2050131</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -2648,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2663,10 +2973,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>62</v>
@@ -2678,64 +2988,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>689</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>757623</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
-        <v>705</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>777174</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
-        <v>1394</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>1534797</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,102 +3054,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>936</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>1017947</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>940</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1032184</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1876</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>2050131</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>757623</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>705</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>777174</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1394</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1534797</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,282 +3158,590 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>947739</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H17" s="7">
-        <v>1003</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>1051901</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="M17" s="7">
-        <v>1913</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>1999640</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="7">
+        <v>689</v>
+      </c>
+      <c r="D19" s="7">
+        <v>757623</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>705</v>
+      </c>
+      <c r="I19" s="7">
+        <v>777174</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1394</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1534797</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
         <v>910</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D20" s="7">
         <v>947739</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="7">
         <v>1003</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I20" s="7">
         <v>1051901</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="7">
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="7">
         <v>1913</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N20" s="7">
         <v>1999640</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="O20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C23" s="7">
+        <v>910</v>
+      </c>
+      <c r="D23" s="7">
+        <v>947739</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1003</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1051901</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1913</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1999640</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
         <v>3209</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D24" s="7">
         <v>3426779</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
         <v>3298</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I24" s="7">
         <v>3558309</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
         <v>6507</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N24" s="7">
         <v>6985088</v>
       </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="O24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3426779</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3298</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3558309</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
+        <v>6507</v>
+      </c>
+      <c r="N27" s="7">
+        <v>6985088</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC8B823-80ED-4635-9F66-2833190924EA}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F8E39-B9D8-4F08-9DDA-71EACAD66669}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3139,7 +3757,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3240,49 +3858,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>116546</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>113360</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>229906</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,159 +3909,159 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>116546</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="H5" s="7">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>113360</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M5" s="7">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>229906</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="7">
         <v>113</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="7">
         <v>116546</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>115</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I7" s="7">
         <v>113360</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="7">
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
         <v>228</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N7" s="7">
         <v>229906</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>539</v>
@@ -3452,13 +4070,13 @@
         <v>558254</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
         <v>551</v>
@@ -3467,13 +4085,13 @@
         <v>559479</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>59</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
         <v>1090</v>
@@ -3482,72 +4100,70 @@
         <v>1117733</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -3556,13 +4172,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3571,10 +4187,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>60</v>
@@ -3586,70 +4202,72 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>951</v>
+        <v>539</v>
       </c>
       <c r="D11" s="7">
-        <v>1022431</v>
+        <v>558254</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>977</v>
+        <v>551</v>
       </c>
       <c r="I11" s="7">
-        <v>1042913</v>
+        <v>559479</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1928</v>
+        <v>1090</v>
       </c>
       <c r="N11" s="7">
-        <v>2065344</v>
+        <v>1117733</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
         <v>951</v>
@@ -3658,13 +4276,13 @@
         <v>1022431</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>977</v>
@@ -3673,13 +4291,13 @@
         <v>1042913</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>1928</v>
@@ -3688,21 +4306,19 @@
         <v>2065344</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -3711,13 +4327,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3726,13 +4342,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3741,64 +4357,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>759552</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
-        <v>736</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>785011</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
-        <v>1432</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>1544563</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,102 +4423,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>951</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>1022431</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>977</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1042913</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1928</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>2065344</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>759552</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>785011</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1432</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1544563</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,282 +4527,590 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>932</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>937567</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H17" s="7">
-        <v>959</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>1043779</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
-        <v>1891</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>1981346</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="7">
+        <v>696</v>
+      </c>
+      <c r="D19" s="7">
+        <v>759552</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>736</v>
+      </c>
+      <c r="I19" s="7">
+        <v>785011</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1432</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1544563</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
         <v>932</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D20" s="7">
         <v>937567</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="7">
         <v>959</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I20" s="7">
         <v>1043779</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="7">
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="7">
         <v>1891</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N20" s="7">
         <v>1981346</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="O20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C23" s="7">
+        <v>932</v>
+      </c>
+      <c r="D23" s="7">
+        <v>937567</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="7">
+        <v>959</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1043779</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1891</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1981346</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
         <v>3231</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D24" s="7">
         <v>3394350</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
         <v>3338</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I24" s="7">
         <v>3544542</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
         <v>6569</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N24" s="7">
         <v>6938892</v>
       </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="O24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3231</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3394350</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3338</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3544542</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
+        <v>6569</v>
+      </c>
+      <c r="N27" s="7">
+        <v>6938892</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5092AC-D4D0-42FB-940E-31C14B0A6D47}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A52D244-30C3-4A19-99F2-94FC3FD6222F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4202,7 +5126,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4303,49 +5227,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>81</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="M4" s="7">
-        <v>5</v>
-      </c>
-      <c r="N4" s="7">
-        <v>2200</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,514 +5278,512 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>100745</v>
+        <v>160</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2040</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="7">
+        <v>5</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2200</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="7">
-        <v>239</v>
-      </c>
-      <c r="I5" s="7">
-        <v>128693</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" s="7">
-        <v>355</v>
-      </c>
-      <c r="N5" s="7">
-        <v>229438</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
         <v>117</v>
       </c>
       <c r="D6" s="7">
-        <v>100905</v>
+        <v>101822</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H6" s="7">
+        <v>239</v>
+      </c>
+      <c r="I6" s="7">
+        <v>128693</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="7">
+        <v>356</v>
+      </c>
+      <c r="N6" s="7">
+        <v>230515</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>118</v>
+      </c>
+      <c r="D7" s="7">
+        <v>101982</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>243</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I7" s="7">
         <v>130733</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="7">
-        <v>360</v>
-      </c>
-      <c r="N6" s="7">
-        <v>231638</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>361</v>
+      </c>
+      <c r="N7" s="7">
+        <v>232715</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7">
-        <v>6544</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="7">
-        <v>10</v>
-      </c>
-      <c r="I7" s="7">
-        <v>7083</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" s="7">
-        <v>17</v>
-      </c>
-      <c r="N7" s="7">
-        <v>13627</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7">
-        <v>600</v>
-      </c>
-      <c r="D8" s="7">
-        <v>535151</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="7">
-        <v>984</v>
-      </c>
-      <c r="I8" s="7">
-        <v>609953</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1584</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1145103</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>607</v>
+        <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>541695</v>
+        <v>6544</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="H9" s="7">
-        <v>994</v>
+        <v>10</v>
       </c>
       <c r="I9" s="7">
-        <v>617036</v>
+        <v>7083</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="M9" s="7">
-        <v>1601</v>
+        <v>17</v>
       </c>
       <c r="N9" s="7">
-        <v>1158730</v>
+        <v>13627</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>605</v>
       </c>
       <c r="D10" s="7">
-        <v>18199</v>
+        <v>543279</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="7">
+        <v>988</v>
+      </c>
+      <c r="I10" s="7">
+        <v>612884</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1593</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1156163</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="7">
-        <v>21</v>
-      </c>
-      <c r="I10" s="7">
-        <v>19159</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M10" s="7">
-        <v>35</v>
-      </c>
-      <c r="N10" s="7">
-        <v>37358</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>612</v>
+      </c>
+      <c r="D11" s="7">
+        <v>549823</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>998</v>
+      </c>
+      <c r="I11" s="7">
+        <v>619967</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1610</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1169790</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7">
-        <v>940</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1007853</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="C13" s="7">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7">
+        <v>18199</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="7">
+        <v>21</v>
+      </c>
+      <c r="I13" s="7">
+        <v>19159</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M13" s="7">
+        <v>35</v>
+      </c>
+      <c r="N13" s="7">
+        <v>37358</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H11" s="7">
-        <v>1479</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1020569</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M11" s="7">
-        <v>2419</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2028422</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7">
-        <v>954</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1026052</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1500</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1039728</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="7">
-        <v>2454</v>
-      </c>
-      <c r="N12" s="7">
-        <v>2065780</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7">
-        <v>20</v>
-      </c>
-      <c r="D13" s="7">
-        <v>25454</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="7">
-        <v>17</v>
-      </c>
-      <c r="I13" s="7">
-        <v>14193</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M13" s="7">
-        <v>37</v>
-      </c>
-      <c r="N13" s="7">
-        <v>39646</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>648</v>
+        <v>950</v>
       </c>
       <c r="D14" s="7">
-        <v>691862</v>
+        <v>1021049</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H14" s="7">
-        <v>1018</v>
+        <v>1496</v>
       </c>
       <c r="I14" s="7">
-        <v>850658</v>
+        <v>1040920</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="M14" s="7">
-        <v>1666</v>
+        <v>2446</v>
       </c>
       <c r="N14" s="7">
-        <v>1542521</v>
+        <v>2061969</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,102 +5792,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>668</v>
+        <v>964</v>
       </c>
       <c r="D15" s="7">
-        <v>717316</v>
+        <v>1039248</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>1035</v>
+        <v>1517</v>
       </c>
       <c r="I15" s="7">
-        <v>864851</v>
+        <v>1060079</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1703</v>
+        <v>2481</v>
       </c>
       <c r="N15" s="7">
-        <v>1582167</v>
+        <v>2099327</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>22810</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="H16" s="7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>36134</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>58944</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,274 +5896,582 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>972</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>931669</v>
+        <v>25454</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="H17" s="7">
-        <v>1503</v>
+        <v>17</v>
       </c>
       <c r="I17" s="7">
-        <v>1099704</v>
+        <v>14193</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="M17" s="7">
-        <v>2475</v>
+        <v>37</v>
       </c>
       <c r="N17" s="7">
-        <v>2031373</v>
+        <v>39646</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>656</v>
+      </c>
+      <c r="D18" s="7">
+        <v>703318</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1030</v>
+      </c>
+      <c r="I18" s="7">
+        <v>860178</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1686</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1563496</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7">
-        <v>998</v>
-      </c>
-      <c r="D18" s="7">
-        <v>954479</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1547</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1135838</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2545</v>
-      </c>
-      <c r="N18" s="7">
-        <v>2090317</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="7">
+        <v>676</v>
+      </c>
+      <c r="D19" s="7">
+        <v>728772</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1047</v>
+      </c>
+      <c r="I19" s="7">
+        <v>874371</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1723</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1603142</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="7">
-        <v>68</v>
-      </c>
-      <c r="D19" s="7">
-        <v>73167</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H19" s="7">
-        <v>96</v>
-      </c>
-      <c r="I19" s="7">
-        <v>78608</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M19" s="7">
-        <v>164</v>
-      </c>
-      <c r="N19" s="7">
-        <v>151775</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="C20" s="7">
-        <v>3276</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>3267279</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="H20" s="7">
-        <v>5223</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>3709578</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
-        <v>8499</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>6976857</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>26</v>
+      </c>
+      <c r="D21" s="7">
+        <v>22810</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" s="7">
+        <v>44</v>
+      </c>
+      <c r="I21" s="7">
+        <v>36134</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M21" s="7">
+        <v>70</v>
+      </c>
+      <c r="N21" s="7">
+        <v>58944</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7">
+        <v>980</v>
+      </c>
+      <c r="D22" s="7">
+        <v>942593</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1518</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1114298</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M22" s="7">
+        <v>2498</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2056891</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="7">
-        <v>3344</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3340446</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5319</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3788186</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8663</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7128632</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>50</v>
+      <c r="C23" s="7">
+        <v>1006</v>
+      </c>
+      <c r="D23" s="7">
+        <v>965403</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1562</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1150432</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="7">
+        <v>2568</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2115835</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7">
+        <v>68</v>
+      </c>
+      <c r="D25" s="7">
+        <v>73167</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" s="7">
+        <v>96</v>
+      </c>
+      <c r="I25" s="7">
+        <v>78608</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M25" s="7">
+        <v>164</v>
+      </c>
+      <c r="N25" s="7">
+        <v>151775</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3308</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3312061</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5271</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3756973</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8579</v>
+      </c>
+      <c r="N26" s="7">
+        <v>7069034</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3376</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3385228</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
+        <v>5367</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3835581</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
+        <v>8743</v>
+      </c>
+      <c r="N27" s="7">
+        <v>7220809</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P78C_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78C_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D5D0BA0-F1A5-407F-BAA2-6E02B9AC3A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAFB1BD1-FA77-4E3D-980D-CA637C2A1399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{42C4A255-189B-48A0-984B-EBB3DBBAA39B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A7D41F76-C01D-48E1-8867-1C87BD2EBB48}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="144">
   <si>
     <t>Población con retrasos en pagos no resueltos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No recogida en edición</t>
@@ -77,520 +77,400 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>98,19%</t>
+    <t>99,72%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con retrasos en pagos no resueltos en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>Población con retrasos en pagos no resueltos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>Población con retrasos en pagos no resueltos en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con retrasos en pagos no resueltos en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>Población con retrasos en pagos no resueltos en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>Población con retrasos en pagos no resueltos en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>97,91%</t>
   </si>
   <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
   </si>
   <si>
     <t>97,34%</t>
   </si>
   <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
 </sst>
 </file>
@@ -1002,8 +882,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292BA6DE-7161-4A22-8DA2-A3B32F6A6A1B}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4BE2BE-3795-42CD-A80E-05FF753EDEE0}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1120,10 +1000,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D4" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1135,31 +1015,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I4" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N4" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1168,7 +1048,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1177,49 +1057,49 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1228,43 +1108,43 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1273,10 +1153,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D7" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -1288,10 +1168,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I7" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -1303,10 +1183,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N7" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1320,52 +1200,52 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D8" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I8" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N8" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -1374,7 +1254,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1383,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1398,13 +1278,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -1413,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1434,13 +1314,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1449,13 +1329,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1464,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1479,10 +1359,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D11" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1494,10 +1374,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I11" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1509,10 +1389,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N11" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -1526,52 +1406,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -1580,7 +1460,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1589,29 +1469,29 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
@@ -1619,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1640,29 +1520,29 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
@@ -1670,13 +1550,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1685,10 +1565,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1700,10 +1580,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I15" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1715,10 +1595,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N15" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1732,52 +1612,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D16" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I16" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N16" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -1786,7 +1666,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1795,13 +1675,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1810,13 +1690,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1825,19 +1705,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1846,13 +1726,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1861,13 +1741,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1876,13 +1756,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1891,10 +1771,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D19" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -1906,10 +1786,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I19" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -1921,10 +1801,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N19" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -1938,52 +1818,52 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I20" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M20" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -1992,7 +1872,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2001,13 +1881,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2016,13 +1896,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2031,19 +1911,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2052,13 +1932,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2067,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2082,13 +1962,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,10 +1977,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -2112,10 +1992,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I23" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -2127,10 +2007,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -2143,222 +2023,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2371,8 +2044,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A006C261-0ED1-41B6-9112-7B976C85C514}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D24D30-D883-4872-96F7-151A8BA705AC}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2388,7 +2061,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2489,46 +2162,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D4" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I4" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N4" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2537,7 +2210,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2546,14 +2219,14 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
@@ -2561,13 +2234,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2576,19 +2249,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2597,14 +2270,14 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
@@ -2612,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2627,13 +2300,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,10 +2315,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D7" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -2657,10 +2330,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I7" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -2672,10 +2345,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N7" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -2689,52 +2362,52 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D8" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I8" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N8" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -2743,7 +2416,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -2752,13 +2425,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2767,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -2782,19 +2455,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -2803,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2818,13 +2491,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2833,13 +2506,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,10 +2521,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D11" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -2863,10 +2536,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I11" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -2878,10 +2551,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N11" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -2895,52 +2568,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -2949,7 +2622,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -2958,14 +2631,14 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
@@ -2973,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2988,19 +2661,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3009,14 +2682,14 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
@@ -3024,13 +2697,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3039,13 +2712,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,10 +2727,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D15" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3069,10 +2742,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I15" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3084,10 +2757,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N15" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3101,52 +2774,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D16" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I16" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N16" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3155,7 +2828,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -3164,13 +2837,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3179,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3194,19 +2867,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -3215,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3230,13 +2903,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3245,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,10 +2933,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D19" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -3275,10 +2948,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I19" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -3290,10 +2963,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N19" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -3307,52 +2980,52 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D20" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I20" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M20" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N20" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -3361,7 +3034,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -3370,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3385,13 +3058,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -3400,19 +3073,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -3421,13 +3094,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3436,13 +3109,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3451,13 +3124,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,10 +3139,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D23" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -3481,10 +3154,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I23" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -3496,10 +3169,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N23" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -3512,222 +3185,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3740,8 +3206,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458F8E39-B9D8-4F08-9DDA-71EACAD66669}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E42597-07D5-4433-9222-62695EC48610}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3757,7 +3223,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3858,46 +3324,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D4" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I4" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N4" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3906,7 +3372,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -3915,13 +3381,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3930,13 +3396,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3945,19 +3411,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -3966,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3981,13 +3447,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3996,13 +3462,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,10 +3477,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D7" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -4026,10 +3492,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I7" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -4041,10 +3507,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N7" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -4058,52 +3524,52 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D8" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I8" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N8" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -4112,7 +3578,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -4121,13 +3587,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4136,13 +3602,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4151,19 +3617,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -4172,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4187,13 +3653,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4202,13 +3668,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,10 +3683,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D11" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -4232,10 +3698,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I11" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -4247,10 +3713,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N11" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -4264,52 +3730,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -4318,7 +3784,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -4327,14 +3793,14 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
@@ -4342,13 +3808,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4357,19 +3823,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -4378,14 +3844,14 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
@@ -4393,13 +3859,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4408,13 +3874,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,10 +3889,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D15" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -4438,10 +3904,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I15" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -4453,10 +3919,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N15" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -4470,52 +3936,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D16" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I16" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N16" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4524,7 +3990,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -4533,13 +3999,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4548,13 +4014,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4563,19 +4029,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -4584,13 +4050,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4599,13 +4065,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4614,13 +4080,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,10 +4095,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D19" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -4644,10 +4110,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I19" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -4659,10 +4125,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N19" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -4676,52 +4142,52 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D20" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I20" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M20" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N20" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -4730,7 +4196,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -4739,13 +4205,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4754,13 +4220,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4769,19 +4235,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -4790,13 +4256,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4805,13 +4271,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4820,13 +4286,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,10 +4301,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D23" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -4850,10 +4316,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I23" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -4865,10 +4331,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N23" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -4881,222 +4347,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5109,8 +4368,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A52D244-30C3-4A19-99F2-94FC3FD6222F}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F255103B-D19A-465A-83D0-3561B5513F48}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5126,7 +4385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5233,13 +4492,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5248,13 +4507,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5263,115 +4522,115 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>160</v>
+        <v>6523</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I5" s="7">
-        <v>2040</v>
+        <v>8694</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="N5" s="7">
-        <v>2200</v>
+        <v>15217</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>722</v>
       </c>
       <c r="D6" s="7">
-        <v>101822</v>
+        <v>628918</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="H6" s="7">
-        <v>239</v>
+        <v>1227</v>
       </c>
       <c r="I6" s="7">
-        <v>128693</v>
+        <v>716636</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="M6" s="7">
-        <v>356</v>
+        <v>1949</v>
       </c>
       <c r="N6" s="7">
-        <v>230515</v>
+        <v>1345555</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,10 +4639,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D7" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -5395,10 +4654,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I7" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -5410,10 +4669,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N7" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -5427,7 +4686,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5439,13 +4698,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5454,13 +4713,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5469,115 +4728,115 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D9" s="7">
-        <v>6544</v>
+        <v>18805</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H9" s="7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I9" s="7">
-        <v>7083</v>
+        <v>17465</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="M9" s="7">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="N9" s="7">
-        <v>13627</v>
+        <v>36270</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>605</v>
+        <v>950</v>
       </c>
       <c r="D10" s="7">
-        <v>543279</v>
+        <v>1174059</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="H10" s="7">
-        <v>988</v>
+        <v>1496</v>
       </c>
       <c r="I10" s="7">
-        <v>612884</v>
+        <v>941186</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="M10" s="7">
-        <v>1593</v>
+        <v>2446</v>
       </c>
       <c r="N10" s="7">
-        <v>1156163</v>
+        <v>2115246</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,10 +4845,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D11" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -5601,10 +4860,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I11" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -5616,10 +4875,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1610</v>
+        <v>2481</v>
       </c>
       <c r="N11" s="7">
-        <v>1169790</v>
+        <v>2151516</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -5633,7 +4892,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5645,14 +4904,14 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
@@ -5660,13 +4919,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5675,115 +4934,115 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>18199</v>
+        <v>24179</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>19159</v>
+        <v>15204</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N13" s="7">
-        <v>37358</v>
+        <v>39383</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>950</v>
+        <v>656</v>
       </c>
       <c r="D14" s="7">
-        <v>1021049</v>
+        <v>680501</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
-        <v>1496</v>
+        <v>1030</v>
       </c>
       <c r="I14" s="7">
-        <v>1040920</v>
+        <v>918162</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
-        <v>2446</v>
+        <v>1686</v>
       </c>
       <c r="N14" s="7">
-        <v>2061969</v>
+        <v>1598663</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,10 +5051,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D15" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -5807,10 +5066,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I15" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -5822,10 +5081,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N15" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -5839,7 +5098,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5851,13 +5110,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5866,13 +5125,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5881,115 +5140,115 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D17" s="7">
-        <v>25454</v>
+        <v>21645</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I17" s="7">
-        <v>14193</v>
+        <v>32837</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="N17" s="7">
-        <v>39646</v>
+        <v>54482</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
-        <v>656</v>
+        <v>980</v>
       </c>
       <c r="D18" s="7">
-        <v>703318</v>
+        <v>905186</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="H18" s="7">
-        <v>1030</v>
+        <v>1518</v>
       </c>
       <c r="I18" s="7">
-        <v>860178</v>
+        <v>1062095</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="M18" s="7">
-        <v>1686</v>
+        <v>2498</v>
       </c>
       <c r="N18" s="7">
-        <v>1563496</v>
+        <v>1967281</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5998,10 +5257,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D19" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -6013,10 +5272,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I19" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -6028,10 +5287,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N19" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -6045,7 +5304,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6057,13 +5316,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6072,13 +5331,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6087,115 +5346,115 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D21" s="7">
-        <v>22810</v>
+        <v>71153</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="H21" s="7">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="I21" s="7">
-        <v>36134</v>
+        <v>74199</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="M21" s="7">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="N21" s="7">
-        <v>58944</v>
+        <v>145352</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
-        <v>980</v>
+        <v>3308</v>
       </c>
       <c r="D22" s="7">
-        <v>942593</v>
+        <v>3388664</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
-        <v>1518</v>
+        <v>5271</v>
       </c>
       <c r="I22" s="7">
-        <v>1114298</v>
+        <v>3638081</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
-        <v>2498</v>
+        <v>8579</v>
       </c>
       <c r="N22" s="7">
-        <v>2056891</v>
+        <v>7026745</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6204,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D23" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -6219,10 +5478,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="I23" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -6234,10 +5493,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>2568</v>
+        <v>8743</v>
       </c>
       <c r="N23" s="7">
-        <v>2115835</v>
+        <v>7172097</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -6250,222 +5509,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>68</v>
-      </c>
-      <c r="D25" s="7">
-        <v>73167</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H25" s="7">
-        <v>96</v>
-      </c>
-      <c r="I25" s="7">
-        <v>78608</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M25" s="7">
-        <v>164</v>
-      </c>
-      <c r="N25" s="7">
-        <v>151775</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>3308</v>
-      </c>
-      <c r="D26" s="7">
-        <v>3312061</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H26" s="7">
-        <v>5271</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3756973</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M26" s="7">
-        <v>8579</v>
-      </c>
-      <c r="N26" s="7">
-        <v>7069034</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5367</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8743</v>
-      </c>
-      <c r="N27" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
